--- a/data/trans_orig/P39B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C815A291-6DF2-4114-883C-2179F1E071A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78375B80-102E-4A9B-AEBC-16E83A3310DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{42782D05-06D7-48BE-BF06-12EE1FCD1943}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5BAB0227-0279-46B7-815C-A04CC53E58D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="742">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2012 (Tasa respuesta: 81,76%)</t>
   </si>
@@ -76,2230 +76,2191 @@
     <t>9,38%</t>
   </si>
   <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>Entre uno y tres años</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2015 (Tasa respuesta: 81,44%)</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>Entre uno y tres años</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2015 (Tasa respuesta: 81,44%)</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
   </si>
   <si>
     <t>18,16%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>18,69%</t>
+    <t>18,71%</t>
   </si>
   <si>
     <t>21,19%</t>
@@ -2714,7 +2675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0187C-4A3D-4B38-943A-FCEBC3494ACC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CEE028-1AB8-475F-B0F7-4ACC90E72FA2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3212,13 +3173,13 @@
         <v>86594</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>171</v>
@@ -3227,13 +3188,13 @@
         <v>178842</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3209,13 @@
         <v>155022</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>121</v>
@@ -3263,13 +3224,13 @@
         <v>130764</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>265</v>
@@ -3278,13 +3239,13 @@
         <v>285785</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,13 +3260,13 @@
         <v>71087</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -3314,13 +3275,13 @@
         <v>89971</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -3329,13 +3290,13 @@
         <v>161058</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3311,13 @@
         <v>112044</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>138</v>
@@ -3365,13 +3326,13 @@
         <v>145941</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>243</v>
@@ -3380,13 +3341,13 @@
         <v>257985</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,7 +3403,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3454,13 +3415,13 @@
         <v>71622</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -3469,13 +3430,13 @@
         <v>55503</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -3484,7 +3445,7 @@
         <v>127124</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>114</v>
@@ -3628,7 +3589,7 @@
         <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
@@ -3637,13 +3598,13 @@
         <v>230920</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3619,13 @@
         <v>195125</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>217</v>
@@ -3673,7 +3634,7 @@
         <v>240847</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>146</v>
@@ -4002,7 +3963,7 @@
         <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,7 +4019,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4070,13 +4031,13 @@
         <v>81305</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -4085,13 +4046,13 @@
         <v>65435</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>143</v>
@@ -4100,13 +4061,13 @@
         <v>146740</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>115</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4082,13 @@
         <v>194467</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>185</v>
@@ -4136,13 +4097,13 @@
         <v>190502</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>375</v>
@@ -4187,7 +4148,7 @@
         <v>275496</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>217</v>
@@ -4229,7 +4190,7 @@
         <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>108</v>
@@ -4238,13 +4199,13 @@
         <v>113689</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>183</v>
@@ -4253,13 +4214,13 @@
         <v>192635</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4235,13 @@
         <v>163144</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>247</v>
@@ -4289,13 +4250,13 @@
         <v>262023</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>397</v>
@@ -4304,13 +4265,13 @@
         <v>425168</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4313,7 @@
         <v>1563</v>
       </c>
       <c r="N33" s="7">
-        <v>1642722</v>
+        <v>1642721</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -4378,13 +4339,13 @@
         <v>258353</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>183</v>
@@ -4393,13 +4354,13 @@
         <v>198332</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="M34" s="7">
         <v>427</v>
@@ -4408,13 +4369,13 @@
         <v>456686</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>247</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4390,13 @@
         <v>646520</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H35" s="7">
         <v>551</v>
@@ -4444,13 +4405,13 @@
         <v>593490</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="M35" s="7">
         <v>1163</v>
@@ -4459,13 +4420,13 @@
         <v>1240010</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4441,13 @@
         <v>858964</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>848</v>
@@ -4495,13 +4456,13 @@
         <v>920837</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>1649</v>
@@ -4510,13 +4471,13 @@
         <v>1779802</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4492,13 @@
         <v>339031</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>408</v>
@@ -4546,13 +4507,13 @@
         <v>436839</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>712</v>
@@ -4561,13 +4522,13 @@
         <v>775870</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4543,13 @@
         <v>597419</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H38" s="7">
         <v>818</v>
@@ -4597,13 +4558,13 @@
         <v>886276</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M38" s="7">
         <v>1369</v>
@@ -4612,13 +4573,13 @@
         <v>1483695</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,7 +4635,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4695,7 +4656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B2D561-DA26-4523-ADD4-300326085CC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A970B8-60A7-4386-BB1B-F49BB40EB47D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4712,7 +4673,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4819,13 +4780,13 @@
         <v>7381</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4834,13 +4795,13 @@
         <v>8274</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>290</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4849,13 +4810,13 @@
         <v>15654</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4831,13 @@
         <v>24371</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -4885,13 +4846,13 @@
         <v>18585</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -4900,13 +4861,13 @@
         <v>42956</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4882,13 @@
         <v>29475</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -4936,13 +4897,13 @@
         <v>34105</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M6" s="7">
         <v>64</v>
@@ -4951,13 +4912,13 @@
         <v>63581</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4933,13 @@
         <v>14497</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4987,13 +4948,13 @@
         <v>11942</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -5002,13 +4963,13 @@
         <v>26439</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +4984,13 @@
         <v>20146</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -5038,13 +4999,13 @@
         <v>22853</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
@@ -5053,13 +5014,13 @@
         <v>42999</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5088,13 @@
         <v>58812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -5142,13 +5103,13 @@
         <v>36794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -5157,13 +5118,13 @@
         <v>95606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5139,13 @@
         <v>103741</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
         <v>112</v>
@@ -5193,13 +5154,13 @@
         <v>110777</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
         <v>213</v>
@@ -5208,13 +5169,13 @@
         <v>214518</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>345</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5190,13 @@
         <v>134228</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>178</v>
+        <v>340</v>
       </c>
       <c r="H12" s="7">
         <v>128</v>
@@ -5244,13 +5205,13 @@
         <v>131181</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>350</v>
+        <v>193</v>
       </c>
       <c r="M12" s="7">
         <v>261</v>
@@ -5259,13 +5220,13 @@
         <v>265410</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5241,13 @@
         <v>63395</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5295,13 +5256,13 @@
         <v>76458</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>358</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -5310,13 +5271,13 @@
         <v>139853</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5292,13 @@
         <v>79239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>363</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7">
         <v>110</v>
@@ -5346,13 +5307,13 @@
         <v>115523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -5361,13 +5322,13 @@
         <v>194762</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,7 +5384,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5435,13 +5396,13 @@
         <v>108389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -5450,13 +5411,13 @@
         <v>88018</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -5465,13 +5426,13 @@
         <v>196407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>368</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5447,13 @@
         <v>198380</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H17" s="7">
         <v>232</v>
@@ -5501,13 +5462,13 @@
         <v>248398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>415</v>
@@ -5516,13 +5477,13 @@
         <v>446778</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5498,13 @@
         <v>245809</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H18" s="7">
         <v>256</v>
@@ -5552,13 +5513,13 @@
         <v>277827</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>390</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>391</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>489</v>
@@ -5567,13 +5528,13 @@
         <v>523636</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5549,13 @@
         <v>115294</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>154</v>
+        <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -5603,13 +5564,13 @@
         <v>133872</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M19" s="7">
         <v>230</v>
@@ -5618,13 +5579,13 @@
         <v>249166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5600,13 @@
         <v>139264</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H20" s="7">
         <v>162</v>
@@ -5654,13 +5615,13 @@
         <v>174819</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M20" s="7">
         <v>293</v>
@@ -5669,13 +5630,13 @@
         <v>314083</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>164</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,10 +5707,10 @@
         <v>44</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>412</v>
+        <v>228</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5758,13 +5719,13 @@
         <v>47673</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
@@ -5773,13 +5734,13 @@
         <v>101413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5755,13 @@
         <v>193441</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H23" s="7">
         <v>177</v>
@@ -5809,13 +5770,13 @@
         <v>185966</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M23" s="7">
         <v>357</v>
@@ -5824,13 +5785,13 @@
         <v>379407</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5806,13 @@
         <v>182614</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>429</v>
+        <v>217</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>430</v>
+        <v>178</v>
       </c>
       <c r="H24" s="7">
         <v>217</v>
@@ -5860,13 +5821,13 @@
         <v>231731</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M24" s="7">
         <v>385</v>
@@ -5875,13 +5836,13 @@
         <v>414345</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5857,13 @@
         <v>61447</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>439</v>
+        <v>230</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5911,13 +5872,13 @@
         <v>76181</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>442</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -5926,13 +5887,13 @@
         <v>137628</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,13 +5908,13 @@
         <v>91182</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="H26" s="7">
         <v>120</v>
@@ -5962,13 +5923,13 @@
         <v>133782</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>325</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="M26" s="7">
         <v>202</v>
@@ -5977,13 +5938,13 @@
         <v>224964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,7 +6000,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6051,13 +6012,13 @@
         <v>79704</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>441</v>
+        <v>284</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H28" s="7">
         <v>50</v>
@@ -6066,13 +6027,13 @@
         <v>53446</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="M28" s="7">
         <v>131</v>
@@ -6081,13 +6042,13 @@
         <v>133150</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6063,13 @@
         <v>204307</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="H29" s="7">
         <v>217</v>
@@ -6117,13 +6078,13 @@
         <v>230106</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M29" s="7">
         <v>420</v>
@@ -6132,13 +6093,13 @@
         <v>434413</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>145</v>
+        <v>455</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6114,13 @@
         <v>203318</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>238</v>
+        <v>385</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="H30" s="7">
         <v>233</v>
@@ -6168,13 +6129,13 @@
         <v>257419</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="M30" s="7">
         <v>437</v>
@@ -6183,13 +6144,13 @@
         <v>460737</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,13 +6165,13 @@
         <v>105684</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>479</v>
+        <v>154</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="H31" s="7">
         <v>129</v>
@@ -6219,13 +6180,13 @@
         <v>144135</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="M31" s="7">
         <v>234</v>
@@ -6234,13 +6195,13 @@
         <v>249819</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,13 +6216,13 @@
         <v>134127</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="H32" s="7">
         <v>141</v>
@@ -6270,13 +6231,13 @@
         <v>162080</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>90</v>
+        <v>477</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="M32" s="7">
         <v>276</v>
@@ -6285,13 +6246,13 @@
         <v>296207</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6320,13 @@
         <v>308025</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="H34" s="7">
         <v>227</v>
@@ -6374,13 +6335,13 @@
         <v>234204</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="M34" s="7">
         <v>517</v>
@@ -6389,13 +6350,13 @@
         <v>542230</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>225</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6371,13 @@
         <v>724240</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="H35" s="7">
         <v>755</v>
@@ -6425,13 +6386,13 @@
         <v>793831</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="M35" s="7">
         <v>1446</v>
@@ -6440,13 +6401,13 @@
         <v>1518072</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,13 +6422,13 @@
         <v>795445</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="H36" s="7">
         <v>869</v>
@@ -6476,13 +6437,13 @@
         <v>932264</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="M36" s="7">
         <v>1636</v>
@@ -6491,13 +6452,13 @@
         <v>1727709</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>517</v>
+        <v>463</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,13 +6473,13 @@
         <v>360317</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="H37" s="7">
         <v>407</v>
@@ -6527,13 +6488,13 @@
         <v>442588</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="M37" s="7">
         <v>751</v>
@@ -6542,13 +6503,13 @@
         <v>802905</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>525</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6524,13 @@
         <v>463958</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="H38" s="7">
         <v>556</v>
@@ -6578,13 +6539,13 @@
         <v>609057</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>341</v>
+        <v>168</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="M38" s="7">
         <v>1000</v>
@@ -6593,13 +6554,13 @@
         <v>1073015</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,7 +6602,7 @@
         <v>5350</v>
       </c>
       <c r="N39" s="7">
-        <v>5663930</v>
+        <v>5663931</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -6655,7 +6616,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -6676,7 +6637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC8F117-F811-4A20-BC98-6F508CB7CF95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8700AC4-5222-4010-9F07-CF7FEAA9A56C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6693,7 +6654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6800,13 +6761,13 @@
         <v>11054</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>242</v>
+        <v>524</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -6815,13 +6776,13 @@
         <v>10630</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6830,13 +6791,13 @@
         <v>21683</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6851,13 +6812,13 @@
         <v>21251</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -6866,13 +6827,13 @@
         <v>19809</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>547</v>
+        <v>47</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -6881,13 +6842,13 @@
         <v>41061</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>537</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6902,13 +6863,13 @@
         <v>26017</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>551</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="H6" s="7">
         <v>46</v>
@@ -6917,13 +6878,13 @@
         <v>22827</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>468</v>
+        <v>543</v>
       </c>
       <c r="M6" s="7">
         <v>76</v>
@@ -6932,13 +6893,13 @@
         <v>48844</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>382</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,13 +6914,13 @@
         <v>11661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -6968,13 +6929,13 @@
         <v>24255</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -6983,13 +6944,13 @@
         <v>35917</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,13 +6965,13 @@
         <v>20285</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>558</v>
       </c>
       <c r="H8" s="7">
         <v>74</v>
@@ -7019,13 +6980,13 @@
         <v>41074</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>220</v>
+        <v>560</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -7034,13 +6995,13 @@
         <v>61359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,13 +7069,13 @@
         <v>37395</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>567</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -7123,13 +7084,13 @@
         <v>54296</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>576</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -7138,13 +7099,13 @@
         <v>91691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>578</v>
+        <v>408</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>580</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,13 +7120,13 @@
         <v>111042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>581</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="H11" s="7">
         <v>175</v>
@@ -7174,13 +7135,13 @@
         <v>110944</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="M11" s="7">
         <v>287</v>
@@ -7189,13 +7150,13 @@
         <v>221986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,13 +7171,13 @@
         <v>130459</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>194</v>
+        <v>578</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>131</v>
+        <v>579</v>
       </c>
       <c r="H12" s="7">
         <v>264</v>
@@ -7225,13 +7186,13 @@
         <v>150893</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>509</v>
+        <v>580</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>589</v>
+        <v>171</v>
       </c>
       <c r="M12" s="7">
         <v>426</v>
@@ -7240,13 +7201,13 @@
         <v>281351</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,13 +7222,13 @@
         <v>97510</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>585</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -7276,13 +7237,13 @@
         <v>101535</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>596</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>589</v>
       </c>
       <c r="M13" s="7">
         <v>313</v>
@@ -7291,13 +7252,13 @@
         <v>199045</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,13 +7273,13 @@
         <v>95307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>600</v>
+        <v>404</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>601</v>
+        <v>325</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>602</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>223</v>
@@ -7327,13 +7288,13 @@
         <v>122657</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="M14" s="7">
         <v>345</v>
@@ -7342,13 +7303,13 @@
         <v>217964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>607</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,7 +7365,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7416,13 +7377,13 @@
         <v>71083</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -7431,13 +7392,13 @@
         <v>57460</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -7446,13 +7407,13 @@
         <v>128542</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7428,13 @@
         <v>164362</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="H17" s="7">
         <v>303</v>
@@ -7482,13 +7443,13 @@
         <v>215075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>610</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>611</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>612</v>
       </c>
       <c r="M17" s="7">
         <v>470</v>
@@ -7497,13 +7458,13 @@
         <v>379438</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>622</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,13 +7479,13 @@
         <v>240953</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>353</v>
+        <v>615</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>624</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="H18" s="7">
         <v>404</v>
@@ -7533,13 +7494,13 @@
         <v>252385</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="M18" s="7">
         <v>644</v>
@@ -7548,13 +7509,13 @@
         <v>493337</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>630</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>394</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7569,13 +7530,13 @@
         <v>124029</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="H19" s="7">
         <v>233</v>
@@ -7584,13 +7545,13 @@
         <v>150555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>635</v>
+        <v>557</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="M19" s="7">
         <v>375</v>
@@ -7599,13 +7560,13 @@
         <v>274584</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7581,13 @@
         <v>143881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
@@ -7635,13 +7596,13 @@
         <v>210331</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>642</v>
+        <v>589</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="M20" s="7">
         <v>485</v>
@@ -7650,13 +7611,13 @@
         <v>354212</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>521</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,16 +7682,16 @@
         <v>42</v>
       </c>
       <c r="D22" s="7">
-        <v>51771</v>
+        <v>51772</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>410</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>647</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -7739,13 +7700,13 @@
         <v>47840</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -7754,13 +7715,13 @@
         <v>99612</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>642</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7736,13 @@
         <v>197237</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>646</v>
       </c>
       <c r="H23" s="7">
         <v>262</v>
@@ -7790,13 +7751,13 @@
         <v>195310</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="M23" s="7">
         <v>442</v>
@@ -7805,13 +7766,13 @@
         <v>392547</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>195</v>
+        <v>651</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,16 +7784,16 @@
         <v>159</v>
       </c>
       <c r="D24" s="7">
-        <v>164714</v>
+        <v>164715</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>369</v>
+        <v>654</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>515</v>
+        <v>655</v>
       </c>
       <c r="H24" s="7">
         <v>282</v>
@@ -7841,13 +7802,13 @@
         <v>318509</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="M24" s="7">
         <v>441</v>
@@ -7856,13 +7817,13 @@
         <v>483223</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>663</v>
+        <v>546</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,13 +7838,13 @@
         <v>82076</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>666</v>
+        <v>110</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="H25" s="7">
         <v>137</v>
@@ -7892,13 +7853,13 @@
         <v>80710</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="M25" s="7">
         <v>225</v>
@@ -7907,13 +7868,13 @@
         <v>162786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,10 +7892,10 @@
         <v>41</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>532</v>
+        <v>669</v>
       </c>
       <c r="H26" s="7">
         <v>189</v>
@@ -7943,13 +7904,13 @@
         <v>119413</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>671</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="M26" s="7">
         <v>286</v>
@@ -7958,13 +7919,13 @@
         <v>204239</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7976,7 +7937,7 @@
         <v>566</v>
       </c>
       <c r="D27" s="7">
-        <v>580624</v>
+        <v>580625</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -8020,7 +7981,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8032,13 +7993,13 @@
         <v>44892</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>45</v>
+        <v>677</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H28" s="7">
         <v>68</v>
@@ -8047,13 +8008,13 @@
         <v>56967</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>683</v>
       </c>
       <c r="M28" s="7">
         <v>117</v>
@@ -8062,13 +8023,13 @@
         <v>101859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8044,13 @@
         <v>200525</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>688</v>
+        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>300</v>
@@ -8098,13 +8059,13 @@
         <v>210476</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>691</v>
+        <v>342</v>
       </c>
       <c r="M29" s="7">
         <v>502</v>
@@ -8113,13 +8074,13 @@
         <v>411001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,13 +8095,13 @@
         <v>241844</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>84</v>
+        <v>690</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H30" s="7">
         <v>458</v>
@@ -8149,13 +8110,13 @@
         <v>320150</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>698</v>
+        <v>173</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="M30" s="7">
         <v>731</v>
@@ -8164,13 +8125,13 @@
         <v>561994</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>469</v>
+        <v>696</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8185,13 +8146,13 @@
         <v>143571</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>703</v>
+        <v>512</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="H31" s="7">
         <v>255</v>
@@ -8200,13 +8161,13 @@
         <v>168825</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>705</v>
+        <v>467</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="M31" s="7">
         <v>422</v>
@@ -8215,13 +8176,13 @@
         <v>312395</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>710</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8236,13 +8197,13 @@
         <v>137924</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>711</v>
+        <v>520</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>712</v>
+        <v>532</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="H32" s="7">
         <v>323</v>
@@ -8251,13 +8212,13 @@
         <v>219126</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>714</v>
+        <v>355</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>533</v>
+        <v>335</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="M32" s="7">
         <v>485</v>
@@ -8266,13 +8227,13 @@
         <v>357050</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>717</v>
+        <v>629</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>718</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,13 +8301,13 @@
         <v>216195</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="H34" s="7">
         <v>295</v>
@@ -8355,13 +8316,13 @@
         <v>227192</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>615</v>
+        <v>678</v>
       </c>
       <c r="M34" s="7">
         <v>505</v>
@@ -8370,13 +8331,13 @@
         <v>443387</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>579</v>
+        <v>712</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8394,10 +8355,10 @@
         <v>148</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>726</v>
+        <v>654</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>727</v>
+        <v>498</v>
       </c>
       <c r="H35" s="7">
         <v>1081</v>
@@ -8406,13 +8367,13 @@
         <v>751616</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="M35" s="7">
         <v>1766</v>
@@ -8421,13 +8382,13 @@
         <v>1446034</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8442,13 +8403,13 @@
         <v>803986</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="H36" s="7">
         <v>1454</v>
@@ -8457,13 +8418,13 @@
         <v>1064763</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="M36" s="7">
         <v>2318</v>
@@ -8472,13 +8433,13 @@
         <v>1868749</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>29</v>
+        <v>725</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8493,13 +8454,13 @@
         <v>458847</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>741</v>
+        <v>588</v>
       </c>
       <c r="H37" s="7">
         <v>866</v>
@@ -8508,13 +8469,13 @@
         <v>525880</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>705</v>
+        <v>731</v>
       </c>
       <c r="M37" s="7">
         <v>1400</v>
@@ -8523,13 +8484,13 @@
         <v>984728</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8544,13 +8505,13 @@
         <v>482223</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>748</v>
+        <v>622</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="H38" s="7">
         <v>1127</v>
@@ -8559,13 +8520,13 @@
         <v>712602</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>750</v>
+        <v>190</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>90</v>
+        <v>737</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="M38" s="7">
         <v>1700</v>
@@ -8574,13 +8535,13 @@
         <v>1194825</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8607,7 +8568,7 @@
         <v>4823</v>
       </c>
       <c r="I39" s="7">
-        <v>3282052</v>
+        <v>3282053</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -8636,7 +8597,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39B-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78375B80-102E-4A9B-AEBC-16E83A3310DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ACCE2A5-504C-443E-9735-C4ABA66F92D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5BAB0227-0279-46B7-815C-A04CC53E58D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61915297-E753-4CB8-A5B8-C3946D76E625}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="740">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2012 (Tasa respuesta: 81,76%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Más de 3 años</t>
@@ -76,19 +76,19 @@
     <t>9,38%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>7,75%</t>
@@ -97,7 +97,7 @@
     <t>3,82%</t>
   </si>
   <si>
-    <t>13,71%</t>
+    <t>13,29%</t>
   </si>
   <si>
     <t>Entre uno y tres años</t>
@@ -106,2151 +106,2148 @@
     <t>26,74%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
   </si>
   <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>11,64%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2016 (Tasa respuesta: 81,44%)</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>28,82%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2015 (Tasa respuesta: 81,44%)</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
     <t>19,42%</t>
   </si>
   <si>
@@ -2258,9 +2255,6 @@
   </si>
   <si>
     <t>20,12%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
   </si>
   <si>
     <t>21,19%</t>
@@ -2675,7 +2669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CEE028-1AB8-475F-B0F7-4ACC90E72FA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45661DFE-3DA3-4DAB-A6BC-F322EBB45A43}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3191,10 +3185,10 @@
         <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3203,13 @@
         <v>155022</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>121</v>
@@ -3224,13 +3218,13 @@
         <v>130764</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>265</v>
@@ -3239,13 +3233,13 @@
         <v>285785</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3254,13 @@
         <v>71087</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -3275,13 +3269,13 @@
         <v>89971</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -3290,13 +3284,13 @@
         <v>161058</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3305,13 @@
         <v>112044</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>138</v>
@@ -3326,13 +3320,13 @@
         <v>145941</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>243</v>
@@ -3341,13 +3335,13 @@
         <v>257985</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,7 +3397,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3415,13 +3409,13 @@
         <v>71622</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -3430,13 +3424,13 @@
         <v>55503</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -3445,7 +3439,7 @@
         <v>127124</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>114</v>
@@ -3472,7 +3466,7 @@
         <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -3481,13 +3475,13 @@
         <v>158879</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>309</v>
@@ -3496,13 +3490,13 @@
         <v>339989</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3511,13 @@
         <v>249283</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>259</v>
@@ -3532,13 +3526,13 @@
         <v>284167</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>493</v>
@@ -3547,13 +3541,13 @@
         <v>533450</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3562,13 @@
         <v>104311</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>118</v>
@@ -3583,13 +3577,13 @@
         <v>126609</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
@@ -3807,10 +3801,10 @@
         <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3819,13 @@
         <v>210815</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>185</v>
@@ -3840,13 +3834,13 @@
         <v>206990</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>377</v>
@@ -3855,13 +3849,13 @@
         <v>417805</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3870,13 @@
         <v>71348</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>88</v>
@@ -3891,13 +3885,13 @@
         <v>97810</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>151</v>
@@ -3906,13 +3900,13 @@
         <v>169158</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3921,13 @@
         <v>108243</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>182</v>
@@ -3942,13 +3936,13 @@
         <v>198813</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>280</v>
@@ -3957,13 +3951,13 @@
         <v>307056</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,7 +4013,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4031,13 +4025,13 @@
         <v>81305</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -4046,13 +4040,13 @@
         <v>65435</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>143</v>
@@ -4061,13 +4055,13 @@
         <v>146740</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4076,13 @@
         <v>194467</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>185</v>
@@ -4097,13 +4091,13 @@
         <v>190502</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>375</v>
@@ -4112,13 +4106,13 @@
         <v>384969</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4127,13 @@
         <v>217713</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>261</v>
@@ -4148,13 +4142,13 @@
         <v>275496</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>465</v>
@@ -4163,13 +4157,13 @@
         <v>493209</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4178,13 @@
         <v>78946</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="H31" s="7">
         <v>108</v>
@@ -4199,13 +4193,13 @@
         <v>113689</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>183</v>
@@ -4214,13 +4208,13 @@
         <v>192635</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4229,13 @@
         <v>163144</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>247</v>
@@ -4250,13 +4244,13 @@
         <v>262023</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>397</v>
@@ -4265,13 +4259,13 @@
         <v>425168</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>239</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,7 +4307,7 @@
         <v>1563</v>
       </c>
       <c r="N33" s="7">
-        <v>1642721</v>
+        <v>1642722</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -4339,13 +4333,13 @@
         <v>258353</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>183</v>
@@ -4354,13 +4348,13 @@
         <v>198332</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>427</v>
@@ -4369,13 +4363,13 @@
         <v>456686</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4384,13 @@
         <v>646520</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H35" s="7">
         <v>551</v>
@@ -4405,13 +4399,13 @@
         <v>593490</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>1163</v>
@@ -4420,13 +4414,13 @@
         <v>1240010</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4435,13 @@
         <v>858964</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>848</v>
@@ -4456,13 +4450,13 @@
         <v>920837</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>1649</v>
@@ -4471,13 +4465,13 @@
         <v>1779802</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4486,13 @@
         <v>339031</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>408</v>
@@ -4507,13 +4501,13 @@
         <v>436839</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>712</v>
@@ -4522,13 +4516,13 @@
         <v>775870</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>270</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4537,13 @@
         <v>597419</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>818</v>
@@ -4558,13 +4552,13 @@
         <v>886276</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="M38" s="7">
         <v>1369</v>
@@ -4573,13 +4567,13 @@
         <v>1483695</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,7 +4629,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4656,7 +4650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A970B8-60A7-4386-BB1B-F49BB40EB47D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44355133-B3EE-498E-A6CF-EDF2498B5F7C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4673,7 +4667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4780,13 +4774,13 @@
         <v>7381</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4795,13 +4789,13 @@
         <v>8274</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4810,13 +4804,13 @@
         <v>15654</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4825,13 @@
         <v>24371</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -4846,7 +4840,7 @@
         <v>18585</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>291</v>
@@ -5094,7 +5088,7 @@
         <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>325</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -5103,13 +5097,13 @@
         <v>36794</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -5118,13 +5112,13 @@
         <v>95606</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5133,13 @@
         <v>103741</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H11" s="7">
         <v>112</v>
@@ -5154,13 +5148,13 @@
         <v>110777</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M11" s="7">
         <v>213</v>
@@ -5169,13 +5163,13 @@
         <v>214518</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,10 +5202,10 @@
         <v>341</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>342</v>
+        <v>207</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="M12" s="7">
         <v>261</v>
@@ -5220,13 +5214,13 @@
         <v>265410</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5235,13 @@
         <v>63395</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5256,10 +5250,10 @@
         <v>76458</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>350</v>
@@ -5295,10 +5289,10 @@
         <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>110</v>
@@ -5307,13 +5301,13 @@
         <v>115523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -5322,13 +5316,13 @@
         <v>194762</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,7 +5378,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5465,10 +5459,10 @@
         <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>415</v>
@@ -5477,13 +5471,13 @@
         <v>446778</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5492,13 @@
         <v>245809</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H18" s="7">
         <v>256</v>
@@ -5513,13 +5507,13 @@
         <v>277827</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>489</v>
@@ -5555,7 +5549,7 @@
         <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>389</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -5564,13 +5558,13 @@
         <v>133872</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M19" s="7">
         <v>230</v>
@@ -5579,13 +5573,13 @@
         <v>249166</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,13 +5594,13 @@
         <v>139264</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H20" s="7">
         <v>162</v>
@@ -5615,13 +5609,13 @@
         <v>174819</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M20" s="7">
         <v>293</v>
@@ -5630,13 +5624,13 @@
         <v>314083</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,10 +5701,10 @@
         <v>44</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>228</v>
+        <v>404</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5719,13 +5713,13 @@
         <v>47673</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
@@ -5734,13 +5728,13 @@
         <v>101413</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,13 +5749,13 @@
         <v>193441</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>413</v>
+        <v>26</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
         <v>177</v>
@@ -5770,13 +5764,13 @@
         <v>185966</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M23" s="7">
         <v>357</v>
@@ -5785,13 +5779,13 @@
         <v>379407</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5800,13 @@
         <v>182614</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>217</v>
+        <v>419</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>178</v>
+        <v>420</v>
       </c>
       <c r="H24" s="7">
         <v>217</v>
@@ -5821,13 +5815,13 @@
         <v>231731</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M24" s="7">
         <v>385</v>
@@ -5836,13 +5830,13 @@
         <v>414345</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5851,13 @@
         <v>61447</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5878,7 +5872,7 @@
         <v>431</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -5887,13 +5881,13 @@
         <v>137628</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5902,13 @@
         <v>91182</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>120</v>
@@ -5923,13 +5917,13 @@
         <v>133782</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>325</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>202</v>
@@ -5938,13 +5932,13 @@
         <v>224964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,7 +5994,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6012,13 +6006,13 @@
         <v>79704</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>284</v>
+        <v>446</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="H28" s="7">
         <v>50</v>
@@ -6027,13 +6021,13 @@
         <v>53446</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M28" s="7">
         <v>131</v>
@@ -6042,13 +6036,13 @@
         <v>133150</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +6057,13 @@
         <v>204307</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>217</v>
@@ -6078,13 +6072,13 @@
         <v>230106</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>420</v>
@@ -6093,13 +6087,13 @@
         <v>434413</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>307</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6108,13 @@
         <v>203318</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>385</v>
+        <v>462</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H30" s="7">
         <v>233</v>
@@ -6129,13 +6123,13 @@
         <v>257419</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="M30" s="7">
         <v>437</v>
@@ -6144,13 +6138,13 @@
         <v>460737</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6159,13 @@
         <v>105684</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>154</v>
+        <v>470</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H31" s="7">
         <v>129</v>
@@ -6180,13 +6174,13 @@
         <v>144135</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M31" s="7">
         <v>234</v>
@@ -6195,13 +6189,13 @@
         <v>249819</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>471</v>
+        <v>283</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6210,13 @@
         <v>134127</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>474</v>
+        <v>347</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H32" s="7">
         <v>141</v>
@@ -6231,13 +6225,13 @@
         <v>162080</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M32" s="7">
         <v>276</v>
@@ -6246,13 +6240,13 @@
         <v>296207</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,13 +6314,13 @@
         <v>308025</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>483</v>
+        <v>182</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H34" s="7">
         <v>227</v>
@@ -6335,13 +6329,13 @@
         <v>234204</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M34" s="7">
         <v>517</v>
@@ -6350,13 +6344,13 @@
         <v>542230</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,13 +6365,13 @@
         <v>724240</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H35" s="7">
         <v>755</v>
@@ -6386,13 +6380,13 @@
         <v>793831</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M35" s="7">
         <v>1446</v>
@@ -6401,13 +6395,13 @@
         <v>1518072</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,13 +6416,13 @@
         <v>795445</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H36" s="7">
         <v>869</v>
@@ -6437,13 +6431,13 @@
         <v>932264</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="M36" s="7">
         <v>1636</v>
@@ -6452,13 +6446,13 @@
         <v>1727709</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>463</v>
+        <v>26</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,13 +6467,13 @@
         <v>360317</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H37" s="7">
         <v>407</v>
@@ -6488,10 +6482,10 @@
         <v>442588</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>511</v>
+        <v>323</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>512</v>
@@ -6506,10 +6500,10 @@
         <v>513</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>514</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,10 +6518,10 @@
         <v>463958</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>516</v>
+        <v>364</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>517</v>
@@ -6539,13 +6533,13 @@
         <v>609057</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>168</v>
+        <v>518</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M38" s="7">
         <v>1000</v>
@@ -6554,13 +6548,13 @@
         <v>1073015</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,7 +6610,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -6637,7 +6631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8700AC4-5222-4010-9F07-CF7FEAA9A56C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378B50D7-4E2E-4211-9939-9B47DC48B63F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6654,7 +6648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6761,13 +6755,13 @@
         <v>11054</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -6776,13 +6770,13 @@
         <v>10630</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6791,13 +6785,13 @@
         <v>21683</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,13 +6806,13 @@
         <v>21251</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -6827,13 +6821,13 @@
         <v>19809</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -6842,13 +6836,13 @@
         <v>41061</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +6857,13 @@
         <v>26017</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>541</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H6" s="7">
         <v>46</v>
@@ -6878,13 +6872,13 @@
         <v>22827</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M6" s="7">
         <v>76</v>
@@ -6893,13 +6887,13 @@
         <v>48844</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6908,13 @@
         <v>11661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -6929,13 +6923,13 @@
         <v>24255</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -6944,13 +6938,13 @@
         <v>35917</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>553</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,13 +6959,13 @@
         <v>20285</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H8" s="7">
         <v>74</v>
@@ -6980,13 +6974,13 @@
         <v>41074</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -6995,13 +6989,13 @@
         <v>61359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>562</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7063,13 @@
         <v>37395</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -7084,13 +7078,13 @@
         <v>54296</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -7099,13 +7093,13 @@
         <v>91691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>408</v>
+        <v>571</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,13 +7114,13 @@
         <v>111042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>332</v>
+        <v>573</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H11" s="7">
         <v>175</v>
@@ -7135,13 +7129,13 @@
         <v>110944</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>575</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="M11" s="7">
         <v>287</v>
@@ -7150,13 +7144,13 @@
         <v>221986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7165,13 @@
         <v>130459</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>579</v>
+        <v>468</v>
       </c>
       <c r="H12" s="7">
         <v>264</v>
@@ -7186,13 +7180,13 @@
         <v>150893</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>171</v>
+        <v>585</v>
       </c>
       <c r="M12" s="7">
         <v>426</v>
@@ -7201,13 +7195,13 @@
         <v>281351</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7216,13 @@
         <v>97510</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>587</v>
+        <v>458</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -7237,13 +7231,13 @@
         <v>101535</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="M13" s="7">
         <v>313</v>
@@ -7252,13 +7246,13 @@
         <v>199045</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>590</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,13 +7267,13 @@
         <v>95307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>595</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>596</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>342</v>
+        <v>597</v>
       </c>
       <c r="H14" s="7">
         <v>223</v>
@@ -7288,13 +7282,13 @@
         <v>122657</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="M14" s="7">
         <v>345</v>
@@ -7303,13 +7297,13 @@
         <v>217964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>602</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,7 +7359,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7377,13 +7371,13 @@
         <v>71083</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -7392,13 +7386,13 @@
         <v>57460</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>602</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -7407,13 +7401,13 @@
         <v>128542</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>604</v>
+        <v>48</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,13 +7422,13 @@
         <v>164362</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>608</v>
+        <v>517</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="H17" s="7">
         <v>303</v>
@@ -7443,13 +7437,13 @@
         <v>215075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="M17" s="7">
         <v>470</v>
@@ -7458,13 +7452,13 @@
         <v>379438</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>613</v>
+        <v>166</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>616</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7473,13 @@
         <v>240953</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>541</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="H18" s="7">
         <v>404</v>
@@ -7494,13 +7488,13 @@
         <v>252385</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="M18" s="7">
         <v>644</v>
@@ -7509,13 +7503,13 @@
         <v>493337</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>624</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7530,13 +7524,13 @@
         <v>124029</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="H19" s="7">
         <v>233</v>
@@ -7545,13 +7539,13 @@
         <v>150555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="M19" s="7">
         <v>375</v>
@@ -7560,13 +7554,13 @@
         <v>274584</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7581,13 +7575,13 @@
         <v>143881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>631</v>
+        <v>480</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
@@ -7596,13 +7590,13 @@
         <v>210331</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>633</v>
+        <v>270</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>634</v>
+        <v>194</v>
       </c>
       <c r="M20" s="7">
         <v>485</v>
@@ -7611,13 +7605,13 @@
         <v>354212</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>521</v>
+        <v>637</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,13 +7679,13 @@
         <v>51772</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>410</v>
+        <v>640</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>435</v>
+        <v>641</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -7700,13 +7694,13 @@
         <v>47840</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -7715,13 +7709,13 @@
         <v>99612</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>643</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,13 +7730,13 @@
         <v>197237</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>645</v>
+        <v>204</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H23" s="7">
         <v>262</v>
@@ -7751,13 +7745,13 @@
         <v>195310</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>648</v>
+        <v>395</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M23" s="7">
         <v>442</v>
@@ -7766,13 +7760,13 @@
         <v>392547</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,7 +7781,7 @@
         <v>164715</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>653</v>
+        <v>502</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>654</v>
@@ -7820,7 +7814,7 @@
         <v>659</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>660</v>
@@ -7841,10 +7835,10 @@
         <v>661</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>110</v>
+        <v>662</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>467</v>
+        <v>663</v>
       </c>
       <c r="H25" s="7">
         <v>137</v>
@@ -7853,13 +7847,13 @@
         <v>80710</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>664</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>225</v>
@@ -7868,7 +7862,7 @@
         <v>162786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>665</v>
+        <v>154</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>666</v>
@@ -7919,13 +7913,13 @@
         <v>204239</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,7 +7975,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7993,13 +7987,13 @@
         <v>44892</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>678</v>
       </c>
       <c r="H28" s="7">
         <v>68</v>
@@ -8008,13 +8002,13 @@
         <v>56967</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>679</v>
+        <v>45</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="M28" s="7">
         <v>117</v>
@@ -8023,13 +8017,13 @@
         <v>101859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,13 +8038,13 @@
         <v>200525</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>300</v>
@@ -8059,13 +8053,13 @@
         <v>210476</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>686</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>342</v>
+        <v>597</v>
       </c>
       <c r="M29" s="7">
         <v>502</v>
@@ -8074,13 +8068,13 @@
         <v>411001</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,13 +8089,13 @@
         <v>241844</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>690</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>692</v>
       </c>
       <c r="H30" s="7">
         <v>458</v>
@@ -8110,13 +8104,13 @@
         <v>320150</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="M30" s="7">
         <v>731</v>
@@ -8125,13 +8119,13 @@
         <v>561994</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,13 +8140,13 @@
         <v>143571</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>698</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>699</v>
       </c>
       <c r="H31" s="7">
         <v>255</v>
@@ -8161,13 +8155,13 @@
         <v>168825</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>467</v>
+        <v>663</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>701</v>
       </c>
       <c r="M31" s="7">
         <v>422</v>
@@ -8176,13 +8170,13 @@
         <v>312395</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>703</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>332</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8197,13 +8191,13 @@
         <v>137924</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>520</v>
+        <v>703</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>704</v>
+        <v>358</v>
       </c>
       <c r="H32" s="7">
         <v>323</v>
@@ -8212,10 +8206,10 @@
         <v>219126</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>355</v>
+        <v>704</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>705</v>
@@ -8230,7 +8224,7 @@
         <v>706</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>116</v>
@@ -8304,10 +8298,10 @@
         <v>707</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>708</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>709</v>
       </c>
       <c r="H34" s="7">
         <v>295</v>
@@ -8316,13 +8310,13 @@
         <v>227192</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>711</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M34" s="7">
         <v>505</v>
@@ -8331,13 +8325,13 @@
         <v>443387</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,7 +8352,7 @@
         <v>654</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>498</v>
+        <v>714</v>
       </c>
       <c r="H35" s="7">
         <v>1081</v>
@@ -8388,7 +8382,7 @@
         <v>718</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>719</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8406,10 +8400,10 @@
         <v>384</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>720</v>
+        <v>256</v>
       </c>
       <c r="H36" s="7">
         <v>1454</v>
@@ -8418,13 +8412,13 @@
         <v>1064763</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>721</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>723</v>
       </c>
       <c r="M36" s="7">
         <v>2318</v>
@@ -8433,13 +8427,13 @@
         <v>1868749</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>724</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8454,13 +8448,13 @@
         <v>458847</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="H37" s="7">
         <v>866</v>
@@ -8469,13 +8463,13 @@
         <v>525880</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>731</v>
       </c>
       <c r="M37" s="7">
         <v>1400</v>
@@ -8484,13 +8478,13 @@
         <v>984728</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>732</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8505,13 +8499,13 @@
         <v>482223</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H38" s="7">
         <v>1127</v>
@@ -8520,13 +8514,13 @@
         <v>712602</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>190</v>
+        <v>735</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>737</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>738</v>
       </c>
       <c r="M38" s="7">
         <v>1700</v>
@@ -8535,13 +8529,13 @@
         <v>1194825</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>739</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8597,7 +8591,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ACCE2A5-504C-443E-9735-C4ABA66F92D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{979ECA51-56B2-48B2-AF42-8C4E144CD510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61915297-E753-4CB8-A5B8-C3946D76E625}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE583044-3CD6-4A74-9D23-4FA3B02C0329}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="755">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2012 (Tasa respuesta: 81,76%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>9,38%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>6,19%</t>
@@ -88,16 +88,16 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>15,28%</t>
+    <t>17,1%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>Entre uno y tres años</t>
@@ -106,2155 +106,2200 @@
     <t>26,74%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
   </si>
   <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>11,51%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2016 (Tasa respuesta: 81,44%)</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
   </si>
   <si>
     <t>29,38%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2016 (Tasa respuesta: 81,44%)</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>19,77%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>23,29%</t>
   </si>
   <si>
     <t>20,12%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>21,19%</t>
@@ -2669,7 +2714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45661DFE-3DA3-4DAB-A6BC-F322EBB45A43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502C66D6-A348-479E-B04F-F527215FDC35}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3167,13 +3212,13 @@
         <v>86594</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>171</v>
@@ -3182,10 +3227,10 @@
         <v>178842</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>78</v>
@@ -3466,7 +3511,7 @@
         <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -3475,13 +3520,13 @@
         <v>158879</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>309</v>
@@ -3490,13 +3535,13 @@
         <v>339989</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3556,13 @@
         <v>249283</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>259</v>
@@ -3526,13 +3571,13 @@
         <v>284167</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>493</v>
@@ -3541,13 +3586,13 @@
         <v>533450</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3607,13 @@
         <v>104311</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>118</v>
@@ -3577,13 +3622,13 @@
         <v>126609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
@@ -3592,13 +3637,13 @@
         <v>230920</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3658,13 @@
         <v>195125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>217</v>
@@ -3628,7 +3673,7 @@
         <v>240847</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>146</v>
@@ -3801,10 +3846,10 @@
         <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3864,13 @@
         <v>210815</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>185</v>
@@ -3834,13 +3879,13 @@
         <v>206990</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>377</v>
@@ -3849,13 +3894,13 @@
         <v>417805</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3915,13 @@
         <v>71348</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>88</v>
@@ -3885,13 +3930,13 @@
         <v>97810</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>151</v>
@@ -3900,13 +3945,13 @@
         <v>169158</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,13 +3966,13 @@
         <v>108243</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>182</v>
@@ -3936,13 +3981,13 @@
         <v>198813</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>280</v>
@@ -3951,13 +3996,13 @@
         <v>307056</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,7 +4058,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4025,13 +4070,13 @@
         <v>81305</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -4040,13 +4085,13 @@
         <v>65435</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>143</v>
@@ -4055,13 +4100,13 @@
         <v>146740</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4121,13 @@
         <v>194467</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>185</v>
@@ -4091,13 +4136,13 @@
         <v>190502</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>375</v>
@@ -4106,13 +4151,13 @@
         <v>384969</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4172,13 @@
         <v>217713</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>261</v>
@@ -4145,10 +4190,10 @@
         <v>100</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>465</v>
@@ -4157,13 +4202,13 @@
         <v>493209</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4223,13 @@
         <v>78946</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H31" s="7">
         <v>108</v>
@@ -4193,13 +4238,13 @@
         <v>113689</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>183</v>
@@ -4208,13 +4253,13 @@
         <v>192635</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4274,13 @@
         <v>163144</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>247</v>
@@ -4244,13 +4289,13 @@
         <v>262023</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>397</v>
@@ -4259,13 +4304,13 @@
         <v>425168</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>99</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4378,13 @@
         <v>258353</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>183</v>
@@ -4348,13 +4393,13 @@
         <v>198332</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>427</v>
@@ -4363,13 +4408,13 @@
         <v>456686</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4429,13 @@
         <v>646520</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>551</v>
@@ -4399,13 +4444,13 @@
         <v>593490</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M35" s="7">
         <v>1163</v>
@@ -4414,13 +4459,13 @@
         <v>1240010</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4480,13 @@
         <v>858964</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H36" s="7">
         <v>848</v>
@@ -4450,13 +4495,13 @@
         <v>920837</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>1649</v>
@@ -4465,13 +4510,13 @@
         <v>1779802</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4531,13 @@
         <v>339031</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>408</v>
@@ -4501,13 +4546,13 @@
         <v>436839</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M37" s="7">
         <v>712</v>
@@ -4516,13 +4561,13 @@
         <v>775870</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>95</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4582,13 @@
         <v>597419</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H38" s="7">
         <v>818</v>
@@ -4552,13 +4597,13 @@
         <v>886276</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="M38" s="7">
         <v>1369</v>
@@ -4567,13 +4612,13 @@
         <v>1483695</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,7 +4674,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4650,7 +4695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44355133-B3EE-498E-A6CF-EDF2498B5F7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591BAFB2-2954-4F11-944C-1850AFB804DC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4667,7 +4712,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4774,13 +4819,13 @@
         <v>7381</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4789,13 +4834,13 @@
         <v>8274</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4804,13 +4849,13 @@
         <v>15654</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4870,13 @@
         <v>24371</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -4840,13 +4885,13 @@
         <v>18585</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -4855,13 +4900,13 @@
         <v>42956</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4921,13 @@
         <v>29475</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -4891,13 +4936,13 @@
         <v>34105</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>64</v>
@@ -4906,13 +4951,13 @@
         <v>63581</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4972,13 @@
         <v>14497</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4942,13 +4987,13 @@
         <v>11942</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -4957,13 +5002,13 @@
         <v>26439</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,13 +5023,13 @@
         <v>20146</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -4993,13 +5038,13 @@
         <v>22853</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
@@ -5008,13 +5053,13 @@
         <v>42999</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5127,13 @@
         <v>58812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -5097,13 +5142,13 @@
         <v>36794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -5112,13 +5157,13 @@
         <v>95606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,13 +5178,13 @@
         <v>103741</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>112</v>
@@ -5148,13 +5193,13 @@
         <v>110777</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>213</v>
@@ -5163,13 +5208,13 @@
         <v>214518</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5229,13 @@
         <v>134228</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>340</v>
+        <v>178</v>
       </c>
       <c r="H12" s="7">
         <v>128</v>
@@ -5199,13 +5244,13 @@
         <v>131181</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>207</v>
+        <v>349</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>261</v>
@@ -5214,13 +5259,13 @@
         <v>265410</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5280,13 @@
         <v>63395</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5250,13 +5295,13 @@
         <v>76458</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -5265,13 +5310,13 @@
         <v>139853</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5331,13 @@
         <v>79239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H14" s="7">
         <v>110</v>
@@ -5301,13 +5346,13 @@
         <v>115523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -5316,13 +5361,13 @@
         <v>194762</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5435,13 @@
         <v>108389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -5405,13 +5450,13 @@
         <v>88018</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -5420,13 +5465,13 @@
         <v>196407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>368</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>370</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5486,13 @@
         <v>198380</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>232</v>
@@ -5456,13 +5501,13 @@
         <v>248398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>415</v>
@@ -5471,13 +5516,13 @@
         <v>446778</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5537,13 @@
         <v>245809</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
+        <v>386</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H18" s="7">
         <v>256</v>
@@ -5507,13 +5552,13 @@
         <v>277827</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M18" s="7">
         <v>489</v>
@@ -5522,13 +5567,13 @@
         <v>523636</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5588,13 @@
         <v>115294</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>388</v>
+        <v>154</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -5558,13 +5603,13 @@
         <v>133872</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>291</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>230</v>
@@ -5573,13 +5618,13 @@
         <v>249166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5639,13 @@
         <v>139264</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>162</v>
@@ -5609,13 +5654,13 @@
         <v>174819</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>293</v>
@@ -5624,13 +5669,13 @@
         <v>314083</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>402</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,10 +5746,10 @@
         <v>44</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5713,13 +5758,13 @@
         <v>47673</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
@@ -5728,13 +5773,13 @@
         <v>101413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5794,13 @@
         <v>193441</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>26</v>
+        <v>420</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
         <v>177</v>
@@ -5764,13 +5809,13 @@
         <v>185966</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="M23" s="7">
         <v>357</v>
@@ -5779,13 +5824,13 @@
         <v>379407</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5845,13 @@
         <v>182614</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="H24" s="7">
         <v>217</v>
@@ -5815,13 +5860,13 @@
         <v>231731</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="M24" s="7">
         <v>385</v>
@@ -5830,13 +5875,13 @@
         <v>414345</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5896,13 @@
         <v>61447</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5866,13 +5911,13 @@
         <v>76181</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -5881,13 +5926,13 @@
         <v>137628</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>434</v>
+        <v>203</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5947,13 @@
         <v>91182</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>120</v>
@@ -5917,13 +5962,13 @@
         <v>133782</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>202</v>
@@ -5932,13 +5977,13 @@
         <v>224964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,7 +6039,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6006,13 +6051,13 @@
         <v>79704</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H28" s="7">
         <v>50</v>
@@ -6021,13 +6066,13 @@
         <v>53446</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="M28" s="7">
         <v>131</v>
@@ -6036,13 +6081,13 @@
         <v>133150</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6102,13 @@
         <v>204307</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="H29" s="7">
         <v>217</v>
@@ -6072,13 +6117,13 @@
         <v>230106</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="M29" s="7">
         <v>420</v>
@@ -6087,13 +6132,13 @@
         <v>434413</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>460</v>
+        <v>145</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6153,13 @@
         <v>203318</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>462</v>
+        <v>238</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="H30" s="7">
         <v>233</v>
@@ -6123,13 +6168,13 @@
         <v>257419</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="M30" s="7">
         <v>437</v>
@@ -6138,13 +6183,13 @@
         <v>460737</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>374</v>
+        <v>476</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6204,13 @@
         <v>105684</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="H31" s="7">
         <v>129</v>
@@ -6174,13 +6219,13 @@
         <v>144135</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="M31" s="7">
         <v>234</v>
@@ -6189,13 +6234,13 @@
         <v>249819</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>283</v>
+        <v>484</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,13 +6255,13 @@
         <v>134127</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>347</v>
+        <v>487</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="H32" s="7">
         <v>141</v>
@@ -6225,13 +6270,13 @@
         <v>162080</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>479</v>
+        <v>90</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="M32" s="7">
         <v>276</v>
@@ -6240,13 +6285,13 @@
         <v>296207</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,13 +6359,13 @@
         <v>308025</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>182</v>
+        <v>495</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="H34" s="7">
         <v>227</v>
@@ -6329,13 +6374,13 @@
         <v>234204</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="M34" s="7">
         <v>517</v>
@@ -6344,13 +6389,13 @@
         <v>542230</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>491</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,13 +6410,13 @@
         <v>724240</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="H35" s="7">
         <v>755</v>
@@ -6380,13 +6425,13 @@
         <v>793831</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="M35" s="7">
         <v>1446</v>
@@ -6395,13 +6440,13 @@
         <v>1518072</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,13 +6461,13 @@
         <v>795445</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="H36" s="7">
         <v>869</v>
@@ -6431,13 +6476,13 @@
         <v>932264</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="M36" s="7">
         <v>1636</v>
@@ -6446,13 +6491,13 @@
         <v>1727709</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>26</v>
+        <v>517</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>507</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,13 +6512,13 @@
         <v>360317</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="H37" s="7">
         <v>407</v>
@@ -6482,13 +6527,13 @@
         <v>442588</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>323</v>
+        <v>522</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="M37" s="7">
         <v>751</v>
@@ -6497,13 +6542,13 @@
         <v>802905</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,13 +6563,13 @@
         <v>463958</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>364</v>
+        <v>528</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="H38" s="7">
         <v>556</v>
@@ -6533,13 +6578,13 @@
         <v>609057</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>518</v>
+        <v>341</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="M38" s="7">
         <v>1000</v>
@@ -6548,13 +6593,13 @@
         <v>1073015</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,7 +6641,7 @@
         <v>5350</v>
       </c>
       <c r="N39" s="7">
-        <v>5663931</v>
+        <v>5663930</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -6610,7 +6655,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -6631,7 +6676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378B50D7-4E2E-4211-9939-9B47DC48B63F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AC0174-56C0-4700-957C-989A2F85CE53}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6648,7 +6693,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6755,13 +6800,13 @@
         <v>11054</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>525</v>
+        <v>242</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -6770,13 +6815,13 @@
         <v>10630</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6785,13 +6830,13 @@
         <v>21683</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6806,13 +6851,13 @@
         <v>21251</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -6821,13 +6866,13 @@
         <v>19809</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>47</v>
+        <v>547</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -6836,13 +6881,13 @@
         <v>41061</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>539</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,13 +6902,13 @@
         <v>26017</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="H6" s="7">
         <v>46</v>
@@ -6872,13 +6917,13 @@
         <v>22827</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>546</v>
+        <v>468</v>
       </c>
       <c r="M6" s="7">
         <v>76</v>
@@ -6887,13 +6932,13 @@
         <v>48844</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>549</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,13 +6953,13 @@
         <v>11661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -6923,13 +6968,13 @@
         <v>24255</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -6938,13 +6983,13 @@
         <v>35917</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>563</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,13 +7004,13 @@
         <v>20285</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>560</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
         <v>74</v>
@@ -6974,13 +7019,13 @@
         <v>41074</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>562</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -6989,13 +7034,13 @@
         <v>61359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>570</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7108,13 @@
         <v>37395</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>568</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -7078,13 +7123,13 @@
         <v>54296</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>576</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -7093,13 +7138,13 @@
         <v>91691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>445</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,13 +7159,13 @@
         <v>111042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="H11" s="7">
         <v>175</v>
@@ -7129,13 +7174,13 @@
         <v>110944</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>575</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="M11" s="7">
         <v>287</v>
@@ -7144,13 +7189,13 @@
         <v>221986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>580</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,13 +7210,13 @@
         <v>130459</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>582</v>
+        <v>194</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>468</v>
+        <v>131</v>
       </c>
       <c r="H12" s="7">
         <v>264</v>
@@ -7180,13 +7225,13 @@
         <v>150893</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>583</v>
+        <v>509</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M12" s="7">
         <v>426</v>
@@ -7195,13 +7240,13 @@
         <v>281351</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7216,13 +7261,13 @@
         <v>97510</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>589</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>458</v>
+        <v>594</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -7231,13 +7276,13 @@
         <v>101535</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>596</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>592</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>313</v>
@@ -7246,13 +7291,13 @@
         <v>199045</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>597</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,13 +7312,13 @@
         <v>95307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H14" s="7">
         <v>223</v>
@@ -7282,13 +7327,13 @@
         <v>122657</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="M14" s="7">
         <v>345</v>
@@ -7297,13 +7342,13 @@
         <v>217964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7371,13 +7416,13 @@
         <v>71083</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -7386,13 +7431,13 @@
         <v>57460</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>613</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -7401,13 +7446,13 @@
         <v>128542</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>615</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,13 +7467,13 @@
         <v>164362</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>517</v>
+        <v>619</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="H17" s="7">
         <v>303</v>
@@ -7437,13 +7482,13 @@
         <v>215075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>613</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>614</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>615</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>470</v>
@@ -7452,13 +7497,13 @@
         <v>379438</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>166</v>
+        <v>621</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,13 +7518,13 @@
         <v>240953</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>618</v>
+        <v>353</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>541</v>
+        <v>624</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H18" s="7">
         <v>404</v>
@@ -7488,13 +7533,13 @@
         <v>252385</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="M18" s="7">
         <v>644</v>
@@ -7503,13 +7548,13 @@
         <v>493337</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>625</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7524,13 +7569,13 @@
         <v>124029</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="H19" s="7">
         <v>233</v>
@@ -7539,13 +7584,13 @@
         <v>150555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>559</v>
+        <v>635</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="M19" s="7">
         <v>375</v>
@@ -7554,13 +7599,13 @@
         <v>274584</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7575,13 +7620,13 @@
         <v>143881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>480</v>
+        <v>639</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
@@ -7590,13 +7635,13 @@
         <v>210331</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>270</v>
+        <v>641</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>592</v>
+        <v>642</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>643</v>
       </c>
       <c r="M20" s="7">
         <v>485</v>
@@ -7605,13 +7650,13 @@
         <v>354212</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>637</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7676,16 +7721,16 @@
         <v>42</v>
       </c>
       <c r="D22" s="7">
-        <v>51772</v>
+        <v>51771</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>640</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -7694,13 +7739,13 @@
         <v>47840</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -7709,13 +7754,13 @@
         <v>99612</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>646</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>179</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,13 +7775,13 @@
         <v>197237</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>204</v>
+        <v>653</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>648</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>262</v>
@@ -7745,13 +7790,13 @@
         <v>195310</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>395</v>
+        <v>654</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="M23" s="7">
         <v>442</v>
@@ -7760,13 +7805,13 @@
         <v>392547</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>652</v>
+        <v>195</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,16 +7823,16 @@
         <v>159</v>
       </c>
       <c r="D24" s="7">
-        <v>164715</v>
+        <v>164714</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>502</v>
+        <v>658</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>654</v>
+        <v>369</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>655</v>
+        <v>515</v>
       </c>
       <c r="H24" s="7">
         <v>282</v>
@@ -7796,13 +7841,13 @@
         <v>318509</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="M24" s="7">
         <v>441</v>
@@ -7811,13 +7856,13 @@
         <v>483223</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>549</v>
+        <v>663</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,13 +7877,13 @@
         <v>82076</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="H25" s="7">
         <v>137</v>
@@ -7847,13 +7892,13 @@
         <v>80710</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>225</v>
+        <v>670</v>
       </c>
       <c r="M25" s="7">
         <v>225</v>
@@ -7862,13 +7907,13 @@
         <v>162786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>154</v>
+        <v>671</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,10 +7931,10 @@
         <v>41</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>669</v>
+        <v>532</v>
       </c>
       <c r="H26" s="7">
         <v>189</v>
@@ -7898,13 +7943,13 @@
         <v>119413</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>671</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="M26" s="7">
         <v>286</v>
@@ -7913,13 +7958,13 @@
         <v>204239</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>677</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,7 +7976,7 @@
         <v>566</v>
       </c>
       <c r="D27" s="7">
-        <v>580625</v>
+        <v>580624</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7975,7 +8020,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7987,13 +8032,13 @@
         <v>44892</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>676</v>
+        <v>45</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="H28" s="7">
         <v>68</v>
@@ -8002,13 +8047,13 @@
         <v>56967</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>45</v>
+        <v>682</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M28" s="7">
         <v>117</v>
@@ -8017,13 +8062,13 @@
         <v>101859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,13 +8083,13 @@
         <v>200525</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="H29" s="7">
         <v>300</v>
@@ -8053,13 +8098,13 @@
         <v>210476</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>597</v>
+        <v>691</v>
       </c>
       <c r="M29" s="7">
         <v>502</v>
@@ -8068,13 +8113,13 @@
         <v>411001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>478</v>
+        <v>693</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,13 +8134,13 @@
         <v>241844</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>688</v>
+        <v>84</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H30" s="7">
         <v>458</v>
@@ -8104,13 +8149,13 @@
         <v>320150</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>172</v>
+        <v>698</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="M30" s="7">
         <v>731</v>
@@ -8119,13 +8164,13 @@
         <v>561994</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>694</v>
+        <v>469</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,13 +8185,13 @@
         <v>143571</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="H31" s="7">
         <v>255</v>
@@ -8155,13 +8200,13 @@
         <v>168825</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>663</v>
+        <v>705</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="M31" s="7">
         <v>422</v>
@@ -8170,13 +8215,13 @@
         <v>312395</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>573</v>
+        <v>710</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8191,13 +8236,13 @@
         <v>137924</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>534</v>
+        <v>712</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>358</v>
+        <v>713</v>
       </c>
       <c r="H32" s="7">
         <v>323</v>
@@ -8206,13 +8251,13 @@
         <v>219126</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>350</v>
+        <v>533</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="M32" s="7">
         <v>485</v>
@@ -8221,13 +8266,13 @@
         <v>357050</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>633</v>
+        <v>717</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>116</v>
+        <v>718</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8295,13 +8340,13 @@
         <v>216195</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>403</v>
+        <v>720</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="H34" s="7">
         <v>295</v>
@@ -8310,13 +8355,13 @@
         <v>227192</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>677</v>
+        <v>615</v>
       </c>
       <c r="M34" s="7">
         <v>505</v>
@@ -8325,13 +8370,13 @@
         <v>443387</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>711</v>
+        <v>579</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8349,10 +8394,10 @@
         <v>148</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>654</v>
+        <v>726</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="H35" s="7">
         <v>1081</v>
@@ -8361,13 +8406,13 @@
         <v>751616</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="M35" s="7">
         <v>1766</v>
@@ -8376,13 +8421,13 @@
         <v>1446034</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>209</v>
+        <v>732</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8397,13 +8442,13 @@
         <v>803986</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>256</v>
+        <v>733</v>
       </c>
       <c r="H36" s="7">
         <v>1454</v>
@@ -8412,13 +8457,13 @@
         <v>1064763</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="M36" s="7">
         <v>2318</v>
@@ -8427,13 +8472,13 @@
         <v>1868749</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>723</v>
+        <v>29</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8448,13 +8493,13 @@
         <v>458847</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>591</v>
+        <v>741</v>
       </c>
       <c r="H37" s="7">
         <v>866</v>
@@ -8463,13 +8508,13 @@
         <v>525880</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>729</v>
+        <v>705</v>
       </c>
       <c r="M37" s="7">
         <v>1400</v>
@@ -8478,13 +8523,13 @@
         <v>984728</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>731</v>
+        <v>745</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8499,13 +8544,13 @@
         <v>482223</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>626</v>
+        <v>748</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="H38" s="7">
         <v>1127</v>
@@ -8514,13 +8559,13 @@
         <v>712602</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>736</v>
+        <v>90</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="M38" s="7">
         <v>1700</v>
@@ -8529,13 +8574,13 @@
         <v>1194825</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>227</v>
+        <v>753</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8562,7 +8607,7 @@
         <v>4823</v>
       </c>
       <c r="I39" s="7">
-        <v>3282053</v>
+        <v>3282052</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -8591,7 +8636,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
